--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1870.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1870.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.08425412558160431</v>
+        <v>1.970149755477905</v>
       </c>
       <c r="B1">
-        <v>0.0697355710238174</v>
+        <v>2.629374027252197</v>
       </c>
       <c r="C1">
-        <v>0.06264428290926848</v>
+        <v>2.277615308761597</v>
       </c>
       <c r="D1">
-        <v>0.06959270599878054</v>
+        <v>2.404961347579956</v>
       </c>
       <c r="E1">
-        <v>0.08733489000632995</v>
+        <v>3.087450504302979</v>
       </c>
     </row>
   </sheetData>
